--- a/Gemini/GeminiDOC.xlsx
+++ b/Gemini/GeminiDOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOR\IGOR\IgorAyelloBorges\PROJETOS\FinancialMarketSimulatorRealData\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBF3CB7-5C98-4E55-8AAD-C0C044BA073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6CF20-C5D6-450F-AFE2-1EECC59A2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94286A15-74E0-4448-8809-569685BF6ECD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Pergunta</t>
   </si>
@@ -317,6 +317,228 @@
 2.  **Verifique os logs do Docker:** Os logs do Docker podem fornecer informações adicionais sobre o erro. Use o comando `docker logs &lt;container_id&gt;` para visualizar os logs.
 3.  **Teste localmente:** Antes de construir a imagem Docker, teste a aplicação localmente para garantir que ela esteja funcionando corretamente. Use o comando `uvicorn main:app --reload` para iniciar o servidor localmente.
 Seguindo esses passos, você deve conseguir identificar e corrigir o problema.</t>
+  </si>
+  <si>
+    <t>Criar tabela SegmentoClassificacao</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server onde deverá constar a primary key identity ID, a sigla e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Segmento</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Setor Econômico" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Subsetor</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Subsetor" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela SetorEconomico</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Segmento" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Empresa</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Empresa" onde deverá constar a primary key identity ID, Nome, código (sigla) fazendo chave estrangeira para as seguintes 
+tabelas dbo.SegmentoClassificacao (NÃO obrigatória), SetorEconomico (obrigatória), Subsetor (obrigatória) e Segmento (obrigatória).</t>
+  </si>
+  <si>
+    <t>Claro, aqui está um script SQL para criar uma tabela no SQL Server com os campos que você especificou:
+```sql
+CREATE TABLE SuaTabela (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    Sigla VARCHAR(10) NOT NULL,
+    Descritivo VARCHAR(255) NOT NULL
+);
+```
+**Explicação do script:**
+* **`CREATE TABLE SuaTabela`**: Define o nome da tabela como "SuaTabela". Você pode alterar este nome para o que for mais adequado para o seu projeto.
+* **`ID INT PRIMARY KEY IDENTITY(1,1)`**:
+    * `ID INT`: Define uma coluna chamada "ID" do tipo inteiro (`INT`).
+    * `PRIMARY KEY`: Define esta coluna como a chave primária da tabela, o que significa que ela deve conter valores únicos e não nulos.
+    * `IDENTITY(1,1)`: Configura a coluna "ID" para ser uma coluna de identidade, ou seja, um valor numérico que é gerado automaticamente pelo SQL Server.
+        * O primeiro "1" indica o valor inicial da sequência.
+        * O segundo "1" indica o incremento entre os valores subsequentes.
+* **`Sigla VARCHAR(10) NOT NULL`**:
+    * `Sigla VARCHAR(10)`: Define uma coluna chamada "Sigla" do tipo `VARCHAR` (cadeia de caracteres de comprimento variável) com um tamanho máximo de 10 caracteres.
+    * `NOT NULL`: Garante que esta coluna não possa conter valores nulos.
+* **`Descritivo VARCHAR(255) NOT NULL`**:
+    * `Descritivo VARCHAR(255)`: Define uma coluna chamada "Descritivo" do tipo `VARCHAR` com um tamanho máximo de 255 caracteres.
+    * `NOT NULL`: Garante que esta coluna não possa conter valores nulos.
+**Como executar o script:**
+1.  **Abra o SQL Server Management Studio (SSMS):**
+    * Conecte-se à instância do SQL Server onde você deseja criar a tabela.
+2.  **Abra uma nova janela de consulta:**
+    * Clique em "Nova Consulta" na barra de ferramentas.
+3.  **Cole o script:**
+    * Cole o script SQL na janela de consulta.
+4.  **Execute o script:**
+    * Clique no botão "Executar" na barra de ferramentas ou pressione a tecla F5.
+Após a execução bem-sucedida do script, a tabela "SuaTabela" será criada no banco de dados selecionado.
+**Recomendações:**
+* Adapte os tipos de dados e os tamanhos das colunas de acordo com as suas necessidades específicas.
+* Considere adicionar restrições adicionais, como restrições de unicidade ou restrições de verificação, para garantir a integridade dos dados.
+* Caso tenha necessidade, poderá adicionar mais colunas a tabela.</t>
+  </si>
+  <si>
+    <t>Claro, aqui está o script SQL para criar a tabela "Setor Econômico" no SQL Server com os campos que você especificou:
+```sql
+CREATE TABLE SetorEconomico (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    Descritivo VARCHAR(255) NOT NULL
+);
+```
+**Explicação do script:**
+* **`CREATE TABLE SetorEconomico`**: Define o nome da tabela como "SetorEconômico".
+* **`ID INT PRIMARY KEY IDENTITY(1,1)`**:
+    * `ID INT`: Define uma coluna chamada "ID" do tipo inteiro (`INT`).
+    * `PRIMARY KEY`: Define esta coluna como a chave primária da tabela, garantindo valores únicos e não nulos.
+    * `IDENTITY(1,1)`: Configura a coluna "ID" para ser uma coluna de identidade, gerando automaticamente valores numéricos sequenciais.
+        * O primeiro "1" indica o valor inicial da sequência.
+        * O segundo "1" indica o incremento entre os valores subsequentes.
+* **`Descritivo VARCHAR(255) NOT NULL`**:
+    * `Descritivo VARCHAR(255)`: Define uma coluna chamada "Descritivo" do tipo `VARCHAR` (cadeia de caracteres de comprimento variável) com um tamanho máximo de 255 caracteres.
+    * `NOT NULL`: Garante que esta coluna não possa conter valores nulos.
+**Como executar o script:**
+1.  **Abra o SQL Server Management Studio (SSMS):**
+    * Conecte-se à instância do SQL Server onde você deseja criar a tabela.
+2.  **Abra uma nova janela de consulta:**
+    * Clique em "Nova Consulta" na barra de ferramentas.
+3.  **Cole o script:**
+    * Cole o script SQL na janela de consulta.
+4.  **Execute o script:**
+    * Clique no botão "Executar" na barra de ferramentas ou pressione a tecla F5.
+Após a execução bem-sucedida do script, a tabela "SetorEconômico" será criada no banco de dados selecionado.
+**Recomendações:**
+* Adapte o tamanho da coluna "Descritivo" de acordo com as suas necessidades específicas.
+* Considere adicionar restrições adicionais, como restrições de unicidade ou restrições de verificação, para garantir a integridade dos dados, caso seja necessário.
+* Caso tenha necessidade, poderá adicionar mais colunas a tabela.</t>
+  </si>
+  <si>
+    <t>Claro, aqui está o script SQL para criar a tabela "Subsetor" no SQL Server com os campos que você especificou:
+```sql
+CREATE TABLE Subsetor (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    Descritivo VARCHAR(255) NOT NULL
+);
+```
+**Explicação do script:**
+* **`CREATE TABLE Subsetor`**: Define o nome da tabela como "Subsetor".
+* **`ID INT PRIMARY KEY IDENTITY(1,1)`**:
+    * `ID INT`: Define uma coluna chamada "ID" do tipo inteiro (`INT`).
+    * `PRIMARY KEY`: Define esta coluna como a chave primária da tabela, garantindo valores únicos e não nulos.
+    * `IDENTITY(1,1)`: Configura a coluna "ID" para ser uma coluna de identidade, gerando automaticamente valores numéricos sequenciais.
+        * O primeiro "1" indica o valor inicial da sequência.
+        * O segundo "1" indica o incremento entre os valores subsequentes.
+* **`Descritivo VARCHAR(255) NOT NULL`**:
+    * `Descritivo VARCHAR(255)`: Define uma coluna chamada "Descritivo" do tipo `VARCHAR` (cadeia de caracteres de comprimento variável) com um tamanho máximo de 255 caracteres.
+    * `NOT NULL`: Garante que esta coluna não possa conter valores nulos.
+**Como executar o script:**
+1.  **Abra o SQL Server Management Studio (SSMS):**
+    * Conecte-se à instância do SQL Server onde você deseja criar a tabela.
+2.  **Abra uma nova janela de consulta:**
+    * Clique em "Nova Consulta" na barra de ferramentas.
+3.  **Cole o script:**
+    * Cole o script SQL na janela de consulta.
+4.  **Execute o script:**
+    * Clique no botão "Executar" na barra de ferramentas ou pressione a tecla F5.
+Após a execução bem-sucedida do script, a tabela "Subsetor" será criada no banco de dados selecionado.
+**Recomendações:**
+* Adapte o tamanho da coluna "Descritivo" de acordo com as suas necessidades específicas.
+* Considere adicionar restrições adicionais, como restrições de unicidade ou restrições de verificação, para garantir a integridade dos dados, caso seja necessário.
+* Caso tenha necessidade, poderá adicionar mais colunas a tabela.</t>
+  </si>
+  <si>
+    <t>Claro, aqui está o script SQL para criar a tabela "Segmento" no SQL Server com os campos que você especificou:
+```sql
+CREATE TABLE Segmento (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    Descritivo VARCHAR(255) NOT NULL
+);
+```
+**Explicação do script:**
+* **`CREATE TABLE Segmento`**: Define o nome da tabela como "Segmento".
+* **`ID INT PRIMARY KEY IDENTITY(1,1)`**:
+    * `ID INT`: Define uma coluna chamada "ID" do tipo inteiro (`INT`).
+    * `PRIMARY KEY`: Define esta coluna como a chave primária da tabela, garantindo valores únicos e não nulos.
+    * `IDENTITY(1,1)`: Configura a coluna "ID" para ser uma coluna de identidade, gerando automaticamente valores numéricos sequenciais.
+        * O primeiro "1" indica o valor inicial da sequência.
+        * O segundo "1" indica o incremento entre os valores subsequentes.
+* **`Descritivo VARCHAR(255) NOT NULL`**:
+    * `Descritivo VARCHAR(255)`: Define uma coluna chamada "Descritivo" do tipo `VARCHAR` (cadeia de caracteres de comprimento variável) com um tamanho máximo de 255 caracteres.
+    * `NOT NULL`: Garante que esta coluna não possa conter valores nulos.
+**Como executar o script:**
+1.  **Abra o SQL Server Management Studio (SSMS):**
+    * Conecte-se à instância do SQL Server onde você deseja criar a tabela.
+2.  **Abra uma nova janela de consulta:**
+    * Clique em "Nova Consulta" na barra de ferramentas.
+3.  **Cole o script:**
+    * Cole o script SQL na janela de consulta.
+4.  **Execute o script:**
+    * Clique no botão "Executar" na barra de ferramentas ou pressione a tecla F5.
+Após a execução bem-sucedida do script, a tabela "Segmento" será criada no banco de dados selecionado.
+**Recomendações:**
+* Adapte o tamanho da coluna "Descritivo" de acordo com as suas necessidades específicas.
+* Considere adicionar restrições adicionais, como restrições de unicidade ou restrições de verificação, para garantir a integridade dos dados, caso seja necessário.
+* Caso tenha necessidade, poderá adicionar mais colunas a tabela.</t>
+  </si>
+  <si>
+    <t>Claro, aqui está o script SQL para criar a tabela "Empresa" no SQL Server com os campos e chaves estrangeiras que você especificou:
+```sql
+CREATE TABLE Empresa (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    Nome VARCHAR(255) NOT NULL,
+    Codigo VARCHAR(20) NOT NULL,
+    SegmentoClassificacaoID INT NULL, -- Chave estrangeira para SegmentoClassificacao (não obrigatória)
+    SetorEconomicoID INT NOT NULL, -- Chave estrangeira para SetorEconomico (obrigatória)
+    SubsetorID INT NOT NULL, -- Chave estrangeira para Subsetor (obrigatória)
+    SegmentoID INT NOT NULL, -- Chave estrangeira para Segmento (obrigatória)
+    FOREIGN KEY (SegmentoClassificacaoID) REFERENCES dbo.SegmentoClassificacao(ID),
+    FOREIGN KEY (SetorEconomicoID) REFERENCES SetorEconomico(ID),
+    FOREIGN KEY (SubsetorID) REFERENCES Subsetor(ID),
+    FOREIGN KEY (SegmentoID) REFERENCES Segmento(ID)
+);
+```
+**Explicação do script:**
+* **`CREATE TABLE Empresa`**: Define o nome da tabela como "Empresa".
+* **`ID INT PRIMARY KEY IDENTITY(1,1)`**:
+    * `ID INT`: Define uma coluna chamada "ID" do tipo inteiro (`INT`).
+    * `PRIMARY KEY`: Define esta coluna como a chave primária da tabela, garantindo valores únicos e não nulos.
+    * `IDENTITY(1,1)`: Configura a coluna "ID" para ser uma coluna de identidade, gerando automaticamente valores numéricos sequenciais.
+        * O primeiro "1" indica o valor inicial da sequência.
+        * O segundo "1" indica o incremento entre os valores subsequentes.
+* **`Nome VARCHAR(255) NOT NULL`**: Define uma coluna chamada "Nome" do tipo `VARCHAR` com um tamanho máximo de 255 caracteres e não permite valores nulos.
+* **`Codigo VARCHAR(20) NOT NULL`**: Define uma coluna chamada "Codigo" do tipo `VARCHAR` com um tamanho máximo de 20 caracteres e não permite valores nulos.
+* **`SegmentoClassificacaoID INT NULL`**: Define uma coluna chamada "SegmentoClassificacaoID" do tipo inteiro (`INT`) que pode conter valores nulos, pois a relação é opcional.
+* **`SetorEconomicoID INT NOT NULL`**: Define uma coluna chamada "SetorEconomicoID" do tipo inteiro (`INT`) e não permite valores nulos, pois a relação é obrigatória.
+* **`SubsetorID INT NOT NULL`**: Define uma coluna chamada "SubsetorID" do tipo inteiro (`INT`) e não permite valores nulos, pois a relação é obrigatória.
+* **`SegmentoID INT NOT NULL`**: Define uma coluna chamada "SegmentoID" do tipo inteiro (`INT`) e não permite valores nulos, pois a relação é obrigatória.
+* **`FOREIGN KEY (SegmentoClassificacaoID) REFERENCES dbo.SegmentoClassificacao(ID)`**: Define a chave estrangeira para a tabela "dbo.SegmentoClassificacao".
+* **`FOREIGN KEY (SetorEconomicoID) REFERENCES SetorEconomico(ID)`**: Define a chave estrangeira para a tabela "SetorEconomico".
+* **`FOREIGN KEY (SubsetorID) REFERENCES Subsetor(ID)`**: Define a chave estrangeira para a tabela "Subsetor".
+* **`FOREIGN KEY (SegmentoID) REFERENCES Segmento(ID)`**: Define a chave estrangeira para a tabela "Segmento".
+**Como executar o script:**
+1.  **Abra o SQL Server Management Studio (SSMS):**
+    * Conecte-se à instância do SQL Server onde você deseja criar a tabela.
+2.  **Abra uma nova janela de consulta:**
+    * Clique em "Nova Consulta" na barra de ferramentas.
+3.  **Cole o script:**
+    * Cole o script SQL na janela de consulta.
+4.  **Execute o script:**
+    * Clique no botão "Executar" na barra de ferramentas ou pressione a tecla F5.
+Após a execução bem-sucedida do script, a tabela "Empresa" será criada no banco de dados selecionado, com as chaves estrangeiras configuradas conforme especificado.
+**Recomendações:**
+* Verifique se as tabelas referenciadas pelas chaves estrangeiras ("dbo.SegmentoClassificacao", "SetorEconomico", "Subsetor" e "Segmento") já existem no banco de dados antes de executar este script.
+* Adapte os tamanhos das colunas "Nome" e "Codigo" de acordo com as suas necessidades específicas.
+* Considere adicionar índices nas colunas de chave estrangeira para melhorar o desempenho das consultas.
+* Caso tenha necessidade, poderá adicionar mais colunas a tabela.</t>
   </si>
 </sst>
 </file>
@@ -694,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C306EA0C-B462-426C-9093-F405642008FF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +999,10 @@
       <c r="F3" s="6">
         <v>0.87361111111111112</v>
       </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G9" si="0">F3-E3</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -790,6 +1016,115 @@
       </c>
       <c r="F4" s="3">
         <v>0.87986111111111109</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.95416666666666672</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-3</v>
       </c>
     </row>
   </sheetData>
